--- a/data/trans_dic/P28$otro_2012-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P28$otro_2012-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,64; 12,84</t>
+          <t>6,71; 12,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,26; 10,78</t>
+          <t>4,17; 11,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,33; 11,17</t>
+          <t>6,38; 10,93</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 11,5</t>
+          <t>5,42; 10,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,22; 14,73</t>
+          <t>7,6; 15,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 11,33</t>
+          <t>6,94; 11,66</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,47; 16,2</t>
+          <t>10,48; 16,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 12,92</t>
+          <t>5,25; 12,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,71; 14,38</t>
+          <t>9,85; 14,6</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,31; 13,13</t>
+          <t>9,1; 12,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,62; 10,8</t>
+          <t>6,72; 10,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 11,4</t>
+          <t>8,74; 11,54</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,86; 14,56</t>
+          <t>8,77; 14,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,49</t>
+          <t>7,06; 11,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,58; 11,93</t>
+          <t>8,64; 11,98</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,6; 8,56</t>
+          <t>2,6; 8,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,44; 9,73</t>
+          <t>6,32; 9,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,92; 8,82</t>
+          <t>5,94; 8,84</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,28; 11,58</t>
+          <t>9,21; 11,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,67; 9,65</t>
+          <t>7,68; 9,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,78; 10,24</t>
+          <t>8,74; 10,21</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, fumaba otra persona diferente a sus padres en el ambiente donde se crió</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>39897</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21209</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>61106</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>28229; 54427</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12517; 33553</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>46002; 78850</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>31106</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>34871</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>65977</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21816; 43822</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>24913; 50169</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>50696; 85141</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>80126</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>21672</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>101798</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>64061; 98279</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13106; 32007</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>84755; 125678</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>121459</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>64165</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>185624</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>100404; 142840</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>50248; 81655</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>161645; 213456</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>56429</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>66948</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>123376</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>43300; 72371</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>50889; 83020</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>105054; 145610</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>12585</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>83113</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>95698</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>6794; 22144</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>66025; 101220</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>77526; 115413</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>341600</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>291979</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>633579</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>303274; 381029</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>260536; 328145</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>584153; 682280</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>